--- a/nnt_lrs.xlsx
+++ b/nnt_lrs.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Confirmation of ETT Placement</t>
+          <t>Patient has: Confirmation of ETT Placement</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -473,7 +473,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Confirmation of ETT Placement</t>
+          <t>Patient does not have: Confirmation of ETT Placement</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Age at first syncopal episode older than 35 years</t>
+          <t>Patient has: Age at first syncopal episode older than 35 years</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -524,7 +524,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of atrial fibrillation or flutter</t>
+          <t>Patient has: History of atrial fibrillation or flutter</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,7 +536,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Known severe structural heart disease</t>
+          <t>Patient has: Known severe structural heart disease</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -548,7 +548,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dyspnea prior syncope</t>
+          <t>Patient has: Dyspnea prior syncope</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -560,7 +560,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chest pain/angina prior to syncope</t>
+          <t>Patient has: Chest pain/angina prior to syncope</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -572,7 +572,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cyanotic during syncope</t>
+          <t>Patient has: Cyanotic during syncope</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -584,130 +584,166 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>High-sensitivity cardiac troponin I &gt;31.3 pg/mL</t>
+          <t>Patient has: High-sensitivity cardiac troponin T &gt;42 pg/mL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NT-proBNP ≥210.5 pg/ml</t>
+          <t>Patient has: High-sensitivity cardiac troponin I &gt;31.3 pg/mL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>5.4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NT-proBNP &gt;1966 pg/ml</t>
+          <t>Patient has: NT-proBNP ≥210.5 pg/ml</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>47</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BNP &gt;302 pg/mL</t>
+          <t>Patient has: NT-proBNP &gt;1966 pg/ml</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>5.8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EGSYS Score 3 or more</t>
+          <t>Patient has: BNP &gt;302 pg/mL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2.8 to 3.3</t>
+          <t>6.3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Vasovagal Score less than -2</t>
+          <t>Patient has: Heart disease, abnormal ECG, or both</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.7 to 8.6</t>
+          <t>2.3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Age at first syncopal episode 35 years or younger</t>
+          <t>Patient has: EGSYS Score 3 or more</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>2.8 to 3.3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Normal BNP level</t>
+          <t>Patient has: Vasovagal Score less than -2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.16 to 0.21</t>
+          <t>1.7 to 8.6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Absence of heart disease, abnormal ECG or both</t>
+          <t>Patient does not have: Age at first syncopal episode 35 years or younger</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.13</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EGSYS Score less than 3</t>
+          <t>Patient does not have: Normal cardiac troponin T or I</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.12 to 0.17</t>
+          <t>0.15 to 0.39</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Vasovagal score -2 or more</t>
+          <t>Patient does not have: Normal BNP level</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
+        <is>
+          <t>0.16 to 0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Patient does not have: Absence of heart disease, abnormal ECG or both</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Patient does not have: EGSYS Score less than 3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.12 to 0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Patient does not have: Vasovagal score -2 or more</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>0.10 to 0.84</t>
         </is>
@@ -743,7 +779,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pupillary dilation</t>
+          <t>Patient has: Pupillary dilation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -755,7 +791,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Compression or absence of the basal cisterns on CT</t>
+          <t>Patient has: Compression or absence of the basal cisterns on CT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -767,7 +803,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Midline shift &gt;10 mm on CT</t>
+          <t>Patient has: Midline shift &gt;10 mm on CT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -779,7 +815,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pupillary dilation</t>
+          <t>Patient does not have: Pupillary dilation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -791,7 +827,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Compression or absence of the basal cisterns on CT</t>
+          <t>Patient does not have: Compression or absence of the basal cisterns on CT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -803,7 +839,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Midline shift &gt;10 mm on CT</t>
+          <t>Patient does not have: Midline shift &gt;10 mm on CT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -842,7 +878,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ankle-brachial index: Sensitivity = 49% (95% CI = 39% to 60%)</t>
+          <t>Patient has: Ankle-brachial index: Sensitivity = 49% (95% CI = 39% to 60%)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -854,7 +890,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ankle-brachial index: Specificity = not reported (data not pooled due to significant heterogeneity)</t>
+          <t>Patient does not have: Ankle-brachial index: Specificity = not reported (data not pooled due to significant heterogeneity)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -866,7 +902,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ankle-brachial index without any hard or soft signs (proximity to major
+          <t>Patient does not have: Ankle-brachial index without any hard or soft signs (proximity to major
 artery was not studied)</t>
         </is>
       </c>
@@ -906,7 +942,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Retinal detachment diagnosis</t>
+          <t>Patient has: Retinal detachment diagnosis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -918,7 +954,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Retinal detachment diagnosis</t>
+          <t>Patient does not have: Retinal detachment diagnosis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -957,7 +993,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Limb claudication</t>
+          <t>Patient has: Limb claudication</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -969,7 +1005,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jaw claudication</t>
+          <t>Patient has: Jaw claudication</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -981,7 +1017,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Temporal artery thickening</t>
+          <t>Patient has: Temporal artery thickening</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -993,7 +1029,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Temporal artery loss of pulse</t>
+          <t>Patient has: Temporal artery loss of pulse</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1005,7 +1041,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Platelet count &gt;400 × 103/μL</t>
+          <t>Patient has: Platelet count &gt;400 × 103/μL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1017,7 +1053,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Temporal tenderness</t>
+          <t>Patient has: Temporal tenderness</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1029,7 +1065,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ESR &gt;100 mm/h</t>
+          <t>Patient has: ESR &gt;100 mm/h</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1041,7 +1077,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ESR &lt;40 mm/h</t>
+          <t>Patient does not have: ESR &lt;40 mm/h</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1053,7 +1089,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C reactive protein &lt;2.5 mg/dL</t>
+          <t>Patient does not have: C reactive protein &lt;2.5 mg/dL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1065,7 +1101,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Age &lt;70 years</t>
+          <t>Patient does not have: Age &lt;70 years</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1104,7 +1140,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Small bowel obstruction diagnosis</t>
+          <t>Patient has: Small bowel obstruction diagnosis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1116,7 +1152,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Small bowel obstruction diagnosis</t>
+          <t>Patient does not have: Small bowel obstruction diagnosis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1155,7 +1191,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rapid plasma reagin (RPR)</t>
+          <t>Patient has: Rapid plasma reagin (RPR)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1167,7 +1203,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fluorescent treponemal antibody-absorption (FTA-ABS)</t>
+          <t>Patient has: Fluorescent treponemal antibody-absorption (FTA-ABS)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1179,7 +1215,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Treponema pallidum particle agglutination (TP-PA)</t>
+          <t>Patient has: Treponema pallidum particle agglutination (TP-PA)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1191,7 +1227,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RPR</t>
+          <t>Patient does not have: RPR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1203,7 +1239,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FTA-ABS</t>
+          <t>Patient does not have: FTA-ABS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1215,7 +1251,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TP-PA</t>
+          <t>Patient does not have: TP-PA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1254,7 +1290,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pneumonia diagnosis</t>
+          <t>Patient has: Pneumonia diagnosis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1266,7 +1302,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pneumonia diagnosis</t>
+          <t>Patient does not have: Pneumonia diagnosis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1305,7 +1341,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Significant thoracic injuries or abdominal free fluid</t>
+          <t>Patient has: Significant thoracic injuries or abdominal free fluid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1317,7 +1353,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Significant thoracic injuries or abdominal free fluid</t>
+          <t>Patient does not have: Significant thoracic injuries or abdominal free fluid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1356,7 +1392,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Symptoms:Visual reduction</t>
+          <t>Patient has: Symptoms:Visual reduction</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1368,7 +1404,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Symptoms:&gt;10 new floaters</t>
+          <t>Patient has: Symptoms:&gt;10 new floaters</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1380,7 +1416,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Signs:Vitreous hemorrhage</t>
+          <t>Patient has: Signs:Vitreous hemorrhage</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1392,7 +1428,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Signs:Vitreous pigment</t>
+          <t>Patient has: Signs:Vitreous pigment</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1404,7 +1440,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Signs:Vitreous pigment</t>
+          <t>Patient does not have: Signs:Vitreous pigment</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1424,7 +1460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1443,142 +1479,166 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Signs:Upper lip bite test grade 3</t>
+          <t>Patient has: History:History of difficult intubation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16-19</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Signs:Shorter hyomental distance</t>
+          <t>Patient has: Signs:Upper lip bite test grade 3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Signs:Retrognathia</t>
+          <t>Patient has: Signs:Shorter hyomental distance</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6.4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Signs:Combination of findings on Wilson score</t>
+          <t>Patient has: Signs:Retrognathia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Signs:Impaired neck mobility</t>
+          <t>Patient has: Signs:Combination of findings on Wilson score</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>9.1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Signs:Modified Mallampati score≥3</t>
+          <t>Patient has: Signs:Impaired neck mobility</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Signs:Upper lip bite test grade 3</t>
+          <t>Patient has: Signs:Modified Mallampati score≥3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Signs:Shorter hyomental distance</t>
+          <t>Patient does not have: History:Absence of a history of difficult intubation</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.72-0.82</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Signs:Retrognathia</t>
+          <t>Patient does not have: Signs:Upper lip bite test grade 3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.42</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Signs:Combination of findings on Wilson score</t>
+          <t>Patient does not have: Signs:Shorter hyomental distance</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Signs:Impaired neck mobility</t>
+          <t>Patient does not have: Signs:Retrognathia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.85</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Signs:Modified Mallampati score≥3</t>
+          <t>Patient does not have: Signs:Combination of findings on Wilson score</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Patient does not have: Signs:Impaired neck mobility</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Patient does not have: Signs:Modified Mallampati score≥3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>0.52</t>
         </is>
@@ -1614,7 +1674,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Capillary refill time</t>
+          <t>Patient has: Capillary refill time</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1626,7 +1686,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sunken eyes</t>
+          <t>Patient has: Sunken eyes</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1638,7 +1698,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Speech not clear or expressive</t>
+          <t>Patient has: Speech not clear or expressive</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1650,7 +1710,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dry axilla</t>
+          <t>Patient has: Dry axilla</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1662,7 +1722,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Upper or Lower extremity weakness</t>
+          <t>Patient has: Upper or Lower extremity weakness</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1674,7 +1734,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dry tongue</t>
+          <t>Patient has: Dry tongue</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1686,7 +1746,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Confusion</t>
+          <t>Patient has: Confusion</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1698,7 +1758,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dry mouth and nose m.m.</t>
+          <t>Patient has: Dry mouth and nose m.m.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1710,7 +1770,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tongue longitutinal furrows</t>
+          <t>Patient has: Tongue longitutinal furrows</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1722,7 +1782,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pulse change &gt; 30bpm</t>
+          <t>Patient has: Pulse change &gt; 30bpm</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1734,7 +1794,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Postural hypotension (SVP decr. &gt; 20 mmHg)</t>
+          <t>Patient has: Postural hypotension (SVP decr. &gt; 20 mmHg)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1746,7 +1806,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dry mouth and nose m.m.</t>
+          <t>Patient does not have: Dry mouth and nose m.m.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1758,7 +1818,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tongue longitutinal furrows</t>
+          <t>Patient does not have: Tongue longitutinal furrows</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1770,7 +1830,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sunken eyes</t>
+          <t>Patient does not have: Sunken eyes</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1782,7 +1842,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Speech not clear or expressive</t>
+          <t>Patient does not have: Speech not clear or expressive</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1794,7 +1854,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dry tongue</t>
+          <t>Patient does not have: Dry tongue</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1806,7 +1866,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dry axilla</t>
+          <t>Patient does not have: Dry axilla</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1818,7 +1878,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Confusion</t>
+          <t>Patient does not have: Confusion</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1830,7 +1890,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Capillary refill time</t>
+          <t>Patient does not have: Capillary refill time</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1842,7 +1902,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Upper or Lower extremity weakness</t>
+          <t>Patient does not have: Upper or Lower extremity weakness</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1854,7 +1914,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pulse change &gt; 30bpm</t>
+          <t>Patient does not have: Pulse change &gt; 30bpm</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1866,7 +1926,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Postural hypotension (SVP decr. &gt; 20 mmHg)</t>
+          <t>Patient does not have: Postural hypotension (SVP decr. &gt; 20 mmHg)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1905,7 +1965,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hyperbilirubinemia</t>
+          <t>Patient has: Hyperbilirubinemia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1917,7 +1977,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Splenomegaly</t>
+          <t>Patient has: Splenomegaly</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1929,7 +1989,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Thrombocytopenia</t>
+          <t>Patient has: Thrombocytopenia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1941,7 +2001,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fever</t>
+          <t>Patient has: Fever</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1953,7 +2013,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jaundice/icterus</t>
+          <t>Patient has: Jaundice/icterus</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1965,7 +2025,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pallor</t>
+          <t>Patient has: Pallor</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1977,7 +2037,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hepatomegaly</t>
+          <t>Patient has: Hepatomegaly</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1989,7 +2049,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Vomiting</t>
+          <t>Patient has: Vomiting</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2001,7 +2061,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Headache</t>
+          <t>Patient has: Headache</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2013,7 +2073,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chills/rigors</t>
+          <t>Patient has: Chills/rigors</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2025,7 +2085,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nausea</t>
+          <t>Patient has: Nausea</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2037,7 +2097,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Diarrhea</t>
+          <t>Patient has: Diarrhea</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2049,7 +2109,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dyspnea</t>
+          <t>Patient has: Dyspnea</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2061,7 +2121,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cough</t>
+          <t>Patient has: Cough</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2073,7 +2133,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fever</t>
+          <t>Patient does not have: Fever</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2085,7 +2145,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Thrombocytopenia</t>
+          <t>Patient does not have: Thrombocytopenia</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2097,7 +2157,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Headache</t>
+          <t>Patient does not have: Headache</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2109,7 +2169,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chills/rigors</t>
+          <t>Patient does not have: Chills/rigors</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2121,7 +2181,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hyperbilirubinemia</t>
+          <t>Patient does not have: Hyperbilirubinemia</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2133,7 +2193,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Splenomegaly</t>
+          <t>Patient does not have: Splenomegaly</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2145,7 +2205,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pallor</t>
+          <t>Patient does not have: Pallor</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2157,7 +2217,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Vomiting</t>
+          <t>Patient does not have: Vomiting</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2169,7 +2229,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nausea</t>
+          <t>Patient does not have: Nausea</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2181,7 +2241,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jaundice/icterus</t>
+          <t>Patient does not have: Jaundice/icterus</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2193,7 +2253,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hepatomegaly</t>
+          <t>Patient does not have: Hepatomegaly</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2205,7 +2265,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dyspnea</t>
+          <t>Patient does not have: Dyspnea</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2217,7 +2277,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Diarrhea</t>
+          <t>Patient does not have: Diarrhea</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2229,7 +2289,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cough</t>
+          <t>Patient does not have: Cough</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2268,7 +2328,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bone Exposure</t>
+          <t>Patient has: Bone Exposure</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2280,7 +2340,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ulcer Area &gt; 2cm²</t>
+          <t>Patient has: Ulcer Area &gt; 2cm²</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2292,7 +2352,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Positive probe-to-bone test</t>
+          <t>Patient has: Positive probe-to-bone test</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2304,7 +2364,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Clinical Gestalt</t>
+          <t>Patient has: Clinical Gestalt</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2316,7 +2376,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ulcer inflammation (erythema, swelling, purulence)</t>
+          <t>Patient has: Ulcer inflammation (erythema, swelling, purulence)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2328,7 +2388,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ESR &gt; 70 mm/h</t>
+          <t>Patient has: ESR &gt; 70 mm/h</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2340,7 +2400,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Abnormal findings [indicating osteomyelitis] on plain Radiograph</t>
+          <t>Patient has: Abnormal findings [indicating osteomyelitis] on plain Radiograph</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2352,7 +2412,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Positive probe-to-bone test</t>
+          <t>Patient does not have: Positive probe-to-bone test</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2364,7 +2424,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ulcer Area &gt; 2cm²</t>
+          <t>Patient does not have: Ulcer Area &gt; 2cm²</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2376,7 +2436,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Clinical Gestalt</t>
+          <t>Patient does not have: Clinical Gestalt</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2388,7 +2448,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bone Exposure</t>
+          <t>Patient does not have: Bone Exposure</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2400,7 +2460,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ulcer inflammation (erythema, swelling, purulence)</t>
+          <t>Patient does not have: Ulcer inflammation (erythema, swelling, purulence)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2412,7 +2472,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ESR &gt; 70 mm/h</t>
+          <t>Patient does not have: ESR &gt; 70 mm/h</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2424,7 +2484,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Abnormal findings [indicating osteomyelitis] on plain Radiograph</t>
+          <t>Patient does not have: Abnormal findings [indicating osteomyelitis] on plain Radiograph</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2436,7 +2496,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Swab Culture</t>
+          <t>Patient does not have: Swab Culture</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2475,7 +2535,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Posttussive Emesis</t>
+          <t>Patient has: Posttussive Emesis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2487,7 +2547,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Paroxysmal Cough</t>
+          <t>Patient has: Paroxysmal Cough</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2499,7 +2559,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Inspiratory Whoop</t>
+          <t>Patient has: Inspiratory Whoop</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2511,7 +2571,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Paroxysmal Cough</t>
+          <t>Patient does not have: Paroxysmal Cough</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2523,7 +2583,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Posttussive emesis</t>
+          <t>Patient does not have: Posttussive emesis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2535,7 +2595,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Inspiratory Whoop</t>
+          <t>Patient does not have: Inspiratory Whoop</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2574,7 +2634,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Strep exposure in the past 2 weeks</t>
+          <t>Patient has: Strep exposure in the past 2 weeks</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2586,7 +2646,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Myalgias</t>
+          <t>Patient has: Myalgias</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2598,7 +2658,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>No cough</t>
+          <t>Patient has: No cough</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2610,7 +2670,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of sore throat</t>
+          <t>Patient has: History of sore throat</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2622,7 +2682,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Reported fever</t>
+          <t>Patient has: Reported fever</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2634,7 +2694,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Headache</t>
+          <t>Patient has: Headache</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2646,7 +2706,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nausea</t>
+          <t>Patient has: Nausea</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2658,7 +2718,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Duration &lt;3d</t>
+          <t>Patient has: Duration &lt;3d</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2670,7 +2730,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tonsillar exudates</t>
+          <t>Patient has: Tonsillar exudates</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2682,7 +2742,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pharyngeal exudates</t>
+          <t>Patient has: Pharyngeal exudates</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2694,7 +2754,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tonsillar or pharyngeal exudates</t>
+          <t>Patient has: Tonsillar or pharyngeal exudates</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2706,7 +2766,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Any Exudates</t>
+          <t>Patient has: Any Exudates</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2718,7 +2778,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tonsillar swelling/enlargement</t>
+          <t>Patient has: Tonsillar swelling/enlargement</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2730,7 +2790,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Palatine petechiae</t>
+          <t>Patient has: Palatine petechiae</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2742,7 +2802,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ant. Cervical lymph node tenderness</t>
+          <t>Patient has: Ant. Cervical lymph node tenderness</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2754,7 +2814,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Measured temp &gt;37.8 C</t>
+          <t>Patient has: Measured temp &gt;37.8 C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2766,7 +2826,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Male sex</t>
+          <t>Patient has: Male sex</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2778,7 +2838,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>No coryza</t>
+          <t>Patient has: No coryza</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2790,7 +2850,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Measured temp &gt;=38.3 °C</t>
+          <t>Patient has: Measured temp &gt;=38.3 °C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2802,7 +2862,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pharynx injected</t>
+          <t>Patient has: Pharynx injected</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2814,7 +2874,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ant. Cervical lymph node swollen/enlarged</t>
+          <t>Patient has: Ant. Cervical lymph node swollen/enlarged</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2826,7 +2886,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Rash</t>
+          <t>Patient has: Rash</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2838,7 +2898,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4 Points</t>
+          <t>Patient has: 4 Points</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2850,7 +2910,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3 Points</t>
+          <t>Patient has: 3 Points</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2862,7 +2922,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2 Points</t>
+          <t>Patient has: 2 Points</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2874,7 +2934,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0 Points</t>
+          <t>Patient has: 0 Points</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2886,7 +2946,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1 Points</t>
+          <t>Patient has: 1 Points</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2898,7 +2958,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Duration &lt;3d</t>
+          <t>Patient does not have: Duration &lt;3d</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2910,7 +2970,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Reported fever</t>
+          <t>Patient does not have: Reported fever</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2922,7 +2982,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>No cough</t>
+          <t>Patient does not have: cough</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2934,7 +2994,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Headache</t>
+          <t>Patient does not have: Headache</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2946,7 +3006,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>History of sore throat</t>
+          <t>Patient does not have: History of sore throat</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2958,7 +3018,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Nausea</t>
+          <t>Patient does not have: Nausea</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2970,7 +3030,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Strep exposure previous 2 wk</t>
+          <t>Patient does not have: Strep exposure previous 2 wk</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2982,7 +3042,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Myalgias</t>
+          <t>Patient does not have: Myalgias</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2994,7 +3054,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pharynx injected</t>
+          <t>Patient does not have: Pharynx injected</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3006,7 +3066,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Measured temp &gt;37.8 C</t>
+          <t>Patient does not have: Measured temp &gt;37.8 C</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3018,7 +3078,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>No coryza</t>
+          <t>Patient does not have: coryza</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3030,7 +3090,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Measured temp &gt;=38.3 C</t>
+          <t>Patient does not have: Measured temp &gt;=38.3 C</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3042,7 +3102,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ant. Cervical lymph node swollen/enlarged</t>
+          <t>Patient does not have: Ant. Cervical lymph node swollen/enlarged</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3054,7 +3114,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Ant. Cervical lymph node tenderness</t>
+          <t>Patient does not have: Ant. Cervical lymph node tenderness</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3066,7 +3126,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Tonsillar swelling/enlargement</t>
+          <t>Patient does not have: Tonsillar swelling/enlargement</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3078,7 +3138,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Any Exudates</t>
+          <t>Patient does not have: Any Exudates</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3090,7 +3150,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Tonsillar exudates</t>
+          <t>Patient does not have: Tonsillar exudates</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3102,7 +3162,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Tonsillar or pharyngeal exudates</t>
+          <t>Patient does not have: Tonsillar or pharyngeal exudates</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3114,7 +3174,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Pharyngeal exudates</t>
+          <t>Patient does not have: Pharyngeal exudates</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3126,7 +3186,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Rash</t>
+          <t>Patient does not have: Rash</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3138,7 +3198,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Palatine petechiae</t>
+          <t>Patient does not have: Palatine petechiae</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3150,7 +3210,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Male sex</t>
+          <t>Patient does not have: Male sex</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3189,7 +3249,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Age &lt;=60y</t>
+          <t>Patient has: Age &lt;=60y</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3201,7 +3261,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alcohol consumption</t>
+          <t>Patient has: Alcohol consumption</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3213,7 +3273,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Patient has: Male</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3225,7 +3285,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hypertension</t>
+          <t>Patient has: Hypertension</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3237,7 +3297,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cigarette smoking</t>
+          <t>Patient has: Cigarette smoking</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3249,7 +3309,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Diabetes mellitus</t>
+          <t>Patient has: Diabetes mellitus</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3261,7 +3321,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Prior stroke</t>
+          <t>Patient has: Prior stroke</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3273,7 +3333,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hyperlipidemia</t>
+          <t>Patient has: Hyperlipidemia</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3285,7 +3345,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Coronary artery disease</t>
+          <t>Patient has: Coronary artery disease</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3297,7 +3357,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Atrial fibrillation</t>
+          <t>Patient has: Atrial fibrillation</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3309,7 +3369,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Peripheral artery disease</t>
+          <t>Patient has: Peripheral artery disease</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3321,7 +3381,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Prior TIA</t>
+          <t>Patient has: Prior TIA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3333,7 +3393,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Seizures w/ neurological deficit</t>
+          <t>Patient has: Seizures w/ neurological deficit</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3345,7 +3405,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Vomiting</t>
+          <t>Patient has: Vomiting</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3357,7 +3417,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Headache</t>
+          <t>Patient has: Headache</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3369,7 +3429,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Loss of consciousness</t>
+          <t>Patient has: Loss of consciousness</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3381,7 +3441,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Acute onset deficit</t>
+          <t>Patient has: Acute onset deficit</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3393,7 +3453,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Kernig's or Brudzinski's or both</t>
+          <t>Patient has: Kernig's or Brudzinski's or both</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3405,7 +3465,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LOC: coma</t>
+          <t>Patient has: LOC: coma</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3417,7 +3477,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Neck stiffness</t>
+          <t>Patient has: Neck stiffness</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3429,7 +3489,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Diastolic BP &gt;110 mmHg</t>
+          <t>Patient has: Diastolic BP &gt;110 mmHg</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3441,7 +3501,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LOC: drowsy</t>
+          <t>Patient has: LOC: drowsy</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3453,7 +3513,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Plantar response: both extensor</t>
+          <t>Patient has: Plantar response: both extensor</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3465,7 +3525,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Plantar response: single extensor</t>
+          <t>Patient has: Plantar response: single extensor</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3477,7 +3537,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hemiparesis</t>
+          <t>Patient has: Hemiparesis</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3489,7 +3549,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Plantar response: both flexor</t>
+          <t>Patient has: Plantar response: both flexor</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3501,7 +3561,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LOC: alert</t>
+          <t>Patient has: LOC: alert</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3513,7 +3573,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cervical bruit</t>
+          <t>Patient has: Cervical bruit</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3525,7 +3585,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Xanthochromia in CSF</t>
+          <t>Patient has: Xanthochromia in CSF</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3537,7 +3597,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Atrial fibrillation on ECG</t>
+          <t>Patient has: Atrial fibrillation on ECG</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3549,7 +3609,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Clinician's Gestalt</t>
+          <t>Patient has: Clinician's Gestalt</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3561,7 +3621,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Age &lt;=60y</t>
+          <t>Patient does not have: Age &lt;=60y</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3573,7 +3633,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Alcohol consumption</t>
+          <t>Patient does not have: Alcohol consumption</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3585,7 +3645,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Patient does not have: Male</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3597,7 +3657,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Hypertension</t>
+          <t>Patient does not have: Hypertension</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3609,7 +3669,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Diabetes mellitus</t>
+          <t>Patient does not have: Diabetes mellitus</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3621,7 +3681,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Prior stroke</t>
+          <t>Patient does not have: Prior stroke</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3633,7 +3693,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Hyperlipidemia</t>
+          <t>Patient does not have: Hyperlipidemia</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3645,7 +3705,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Coronary artery disease</t>
+          <t>Patient does not have: Coronary artery disease</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3657,7 +3717,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Atrial fibrillation</t>
+          <t>Patient does not have: Atrial fibrillation</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3669,7 +3729,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Peripheral artery disease</t>
+          <t>Patient does not have: Peripheral artery disease</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3681,7 +3741,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Prior TIA</t>
+          <t>Patient does not have: Prior TIA</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3693,7 +3753,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Cigarette smoking</t>
+          <t>Patient does not have: Cigarette smoking</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3705,7 +3765,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Vomiting</t>
+          <t>Patient does not have: Vomiting</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3717,7 +3777,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Headache</t>
+          <t>Patient does not have: Headache</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3729,7 +3789,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Loss of consciousness</t>
+          <t>Patient does not have: Loss of consciousness</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3741,7 +3801,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Seizures w/ neurological deficit</t>
+          <t>Patient does not have: Seizures w/ neurological deficit</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3753,7 +3813,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Acute onset deficit</t>
+          <t>Patient does not have: Acute onset deficit</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3765,7 +3825,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Diastolic BP &gt;110 mmHg</t>
+          <t>Patient does not have: Diastolic BP &gt;110 mmHg</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3777,7 +3837,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Neck stiffness</t>
+          <t>Patient does not have: Neck stiffness</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3789,7 +3849,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Kernig's or Brudzinski's or both</t>
+          <t>Patient does not have: Kernig's or Brudzinski's or both</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3801,7 +3861,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Hemiparesis</t>
+          <t>Patient does not have: Hemiparesis</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3813,7 +3873,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Cervical bruit</t>
+          <t>Patient does not have: Cervical bruit</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3825,7 +3885,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Xanthochromia in CSF</t>
+          <t>Patient does not have: Xanthochromia in CSF</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3837,7 +3897,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Atrial fibrillation on ECG</t>
+          <t>Patient does not have: Atrial fibrillation on ECG</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3849,7 +3909,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Clinician's Gestalt</t>
+          <t>Patient does not have: Clinician's Gestalt</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3888,7 +3948,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>≥ 4POUNDing Criteria</t>
+          <t>Patient has: ≥ 4POUNDing Criteria</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3927,7 +3987,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Food in mouth after swallowing</t>
+          <t>Patient has: Food in mouth after swallowing</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3939,7 +3999,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Unintelligible speech after prolonged speaking</t>
+          <t>Patient has: Unintelligible speech after prolonged speaking</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3951,7 +4011,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sleep Test</t>
+          <t>Patient has: Sleep Test</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3963,7 +4023,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ice Test</t>
+          <t>Patient has: Ice Test</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3975,7 +4035,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rest Test</t>
+          <t>Patient has: Rest Test</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3987,7 +4047,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Anticholinesterase Test</t>
+          <t>Patient has: Anticholinesterase Test</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3999,7 +4059,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Quiver eye movements</t>
+          <t>Patient has: Quiver eye movements</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4011,7 +4071,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Unintelligible speech after prolonged speaking</t>
+          <t>Patient does not have: Unintelligible speech after prolonged speaking</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4023,7 +4083,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Food in mouth after swallowing</t>
+          <t>Patient does not have: Food in mouth after swallowing</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4035,7 +4095,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sleep Test</t>
+          <t>Patient does not have: Sleep Test</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4047,7 +4107,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Anticholinesterase Test</t>
+          <t>Patient does not have: Anticholinesterase Test</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4059,7 +4119,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ice Test</t>
+          <t>Patient does not have: Ice Test</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4071,7 +4131,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Rest Test</t>
+          <t>Patient does not have: Rest Test</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4083,7 +4143,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Quiver eye movements</t>
+          <t>Patient does not have: Quiver eye movements</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4095,7 +4155,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Peek Sign</t>
+          <t>Patient does not have: Peek Sign</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4134,7 +4194,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>No pain when seated</t>
+          <t>Patient has: No pain when seated</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4146,7 +4206,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Burning sensation around the buttocks, Intermittent priapism associated with walking, or both</t>
+          <t>Patient has: Burning sensation around the buttocks, Intermittent priapism associated with walking, or both</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4158,7 +4218,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Urinary disturbance</t>
+          <t>Patient has: Urinary disturbance</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4170,7 +4230,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Improvement when bending forward</t>
+          <t>Patient has: Improvement when bending forward</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4182,7 +4242,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bilateral buttock or leg</t>
+          <t>Patient has: Bilateral buttock or leg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4194,7 +4254,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Neurogenic claudication</t>
+          <t>Patient has: Neurogenic claudication</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4206,7 +4266,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Numbness of perineal region</t>
+          <t>Patient has: Numbness of perineal region</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4218,7 +4278,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Improve when seated</t>
+          <t>Patient has: Improve when seated</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4230,7 +4290,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Exacerbation when standing up</t>
+          <t>Patient has: Exacerbation when standing up</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4242,7 +4302,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bilateral plantar numbness</t>
+          <t>Patient has: Bilateral plantar numbness</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4254,7 +4314,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Treatment for symptoms needs to be repeated every year</t>
+          <t>Patient has: Treatment for symptoms needs to be repeated every year</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4266,7 +4326,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Orthopedic disease</t>
+          <t>Patient has: Orthopedic disease</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4278,7 +4338,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pain below buttocks</t>
+          <t>Patient has: Pain below buttocks</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4290,7 +4350,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Exacerbated while standing up</t>
+          <t>Patient has: Exacerbated while standing up</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4302,7 +4362,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Wake up to urinate at night</t>
+          <t>Patient has: Wake up to urinate at night</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4314,7 +4374,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Thigh</t>
+          <t>Patient has: Thigh</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4326,7 +4386,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Gluteal</t>
+          <t>Patient has: Gluteal</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4338,7 +4398,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Wide-based gait</t>
+          <t>Patient has: Wide-based gait</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4350,7 +4410,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Abnormal Romberg test result</t>
+          <t>Patient has: Abnormal Romberg test result</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4362,7 +4422,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Vibration deficit</t>
+          <t>Patient has: Vibration deficit</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4374,7 +4434,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pinprick deficit</t>
+          <t>Patient has: Pinprick deficit</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4386,7 +4446,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Age &gt;65 (vs ≤65)</t>
+          <t>Patient has: Age &gt;65 (vs ≤65)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4398,7 +4458,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Weakness</t>
+          <t>Patient has: Weakness</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4410,7 +4470,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Absent Achilles reflex</t>
+          <t>Patient has: Absent Achilles reflex</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4422,7 +4482,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>No pain with flexion</t>
+          <t>Patient has: No pain with flexion</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4434,7 +4494,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Symptoms worsened with bending forward</t>
+          <t>Patient has: Symptoms worsened with bending forward</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4446,7 +4506,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Neurogenic claudication</t>
+          <t>Patient does not have: Neurogenic claudication</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4458,7 +4518,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Pain below buttocks</t>
+          <t>Patient does not have: Pain below buttocks</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4470,7 +4530,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Thigh</t>
+          <t>Patient does not have: Thigh</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4482,7 +4542,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Exacerbated while standing up</t>
+          <t>Patient does not have: Exacerbated while standing up</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4494,7 +4554,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Exacerbation when standing up</t>
+          <t>Patient does not have: Exacerbation when standing up</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4506,7 +4566,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Wake up to urinate at night</t>
+          <t>Patient does not have: Wake up to urinate at night</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4518,7 +4578,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Improvement when bending forward</t>
+          <t>Patient does not have: Improvement when bending forward</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4530,7 +4590,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Bilateral buttock or leg</t>
+          <t>Patient does not have: Bilateral buttock or leg</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4542,7 +4602,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>No pain when seated</t>
+          <t>Patient does not have: pain when seated</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4554,7 +4614,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Improve when seated</t>
+          <t>Patient does not have: Improve when seated</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4566,7 +4626,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Treatment for symptoms needs to be repeated every year</t>
+          <t>Patient does not have: Treatment for symptoms needs to be repeated every year</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4578,7 +4638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Bilateral plantar numbness</t>
+          <t>Patient does not have: Bilateral plantar numbness</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4590,7 +4650,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Urinary disturbance</t>
+          <t>Patient does not have: Urinary disturbance</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4602,7 +4662,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Orthopedic disease</t>
+          <t>Patient does not have: Orthopedic disease</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4614,7 +4674,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Burning sensation around the buttocks, Intermittent priapism associated with walking, or both</t>
+          <t>Patient does not have: Burning sensation around the buttocks, Intermittent priapism associated with walking, or both</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4626,7 +4686,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Numbness of perineal region</t>
+          <t>Patient does not have: Numbness of perineal region</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4638,7 +4698,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Gluteal</t>
+          <t>Patient does not have: Gluteal</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4650,7 +4710,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Pain below buttocks</t>
+          <t>Patient does not have: Pain below buttocks</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4662,7 +4722,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Age &gt;65 (vs ≤65)</t>
+          <t>Patient does not have: Age &gt;65 (vs ≤65)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4674,7 +4734,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Thigh</t>
+          <t>Patient does not have: Thigh</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4686,7 +4746,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Exacerbated while standing up</t>
+          <t>Patient does not have: Exacerbated while standing up</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4698,7 +4758,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Exacerbation when standing up</t>
+          <t>Patient does not have: Exacerbation when standing up</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4710,7 +4770,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>No pain with flexion</t>
+          <t>Patient does not have: pain with flexion</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4722,7 +4782,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Wake up to urinate at night</t>
+          <t>Patient does not have: Wake up to urinate at night</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4734,7 +4794,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Improvement when bending forward</t>
+          <t>Patient does not have: Improvement when bending forward</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4746,7 +4806,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Bilateral buttock or leg</t>
+          <t>Patient does not have: Bilateral buttock or leg</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4758,7 +4818,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Vibration deficit</t>
+          <t>Patient does not have: Vibration deficit</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4770,7 +4830,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>No pain when seated</t>
+          <t>Patient does not have: pain when seated</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4782,7 +4842,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Improve when seated</t>
+          <t>Patient does not have: Improve when seated</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4794,7 +4854,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Wide-based gait</t>
+          <t>Patient does not have: Wide-based gait</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4806,7 +4866,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Pinprick deficit</t>
+          <t>Patient does not have: Pinprick deficit</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4818,7 +4878,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Abnormal Romberg test result</t>
+          <t>Patient does not have: Abnormal Romberg test result</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4830,7 +4890,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Weakness</t>
+          <t>Patient does not have: Weakness</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4842,7 +4902,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Absent Achilles reflex</t>
+          <t>Patient does not have: Absent Achilles reflex</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4854,7 +4914,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Treatment for symptoms needs to be repeated every year</t>
+          <t>Patient does not have: Treatment for symptoms needs to be repeated every year</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4866,7 +4926,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Bilateral plantar numbness</t>
+          <t>Patient does not have: Bilateral plantar numbness</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4878,7 +4938,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Urinary disturbance</t>
+          <t>Patient does not have: Urinary disturbance</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4890,7 +4950,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Orthopedic disease</t>
+          <t>Patient does not have: Orthopedic disease</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4902,7 +4962,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Burning sensation around the buttocks, Intermittent priapism associated with walking, or both</t>
+          <t>Patient does not have: Burning sensation around the buttocks, Intermittent priapism associated with walking, or both</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4914,7 +4974,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Numbness of perineal region</t>
+          <t>Patient does not have: Numbness of perineal region</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4926,7 +4986,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Symptoms induced by having patients bend forward</t>
+          <t>Patient does not have: Symptoms induced by having patients bend forward</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4938,7 +4998,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Gluteal</t>
+          <t>Patient does not have: Gluteal</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4977,7 +5037,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Beaded temporal artery</t>
+          <t>Patient has: Beaded temporal artery</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4989,7 +5049,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Prominent or enlarged temporal artery</t>
+          <t>Patient has: Prominent or enlarged temporal artery</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -5001,7 +5061,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jaw claudication</t>
+          <t>Patient has: Jaw claudication</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5013,7 +5073,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Diplopia</t>
+          <t>Patient has: Diplopia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5025,7 +5085,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absent temporal artery pulse</t>
+          <t>Patient has: Absent temporal artery pulse</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5037,7 +5097,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tender temporal artery</t>
+          <t>Patient has: Tender temporal artery</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5049,7 +5109,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Any temporal artery abnormality</t>
+          <t>Patient has: Any temporal artery abnormality</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5061,7 +5121,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ESR &gt; 100 mm/h</t>
+          <t>Patient has: ESR &gt; 100 mm/h</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5073,7 +5133,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Scalp tenderness</t>
+          <t>Patient has: Scalp tenderness</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5085,7 +5145,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Optic atrophy or ischemic optic neuropathy</t>
+          <t>Patient has: Optic atrophy or ischemic optic neuropathy</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5097,7 +5157,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Anemia</t>
+          <t>Patient has: Anemia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5109,7 +5169,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Temporal headache</t>
+          <t>Patient has: Temporal headache</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -5121,7 +5181,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Weight loss</t>
+          <t>Patient has: Weight loss</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -5133,7 +5193,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Any headache</t>
+          <t>Patient has: Any headache</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5145,7 +5205,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ESR &gt; 50 mm/h</t>
+          <t>Patient has: ESR &gt; 50 mm/h</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -5157,7 +5217,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fatigue</t>
+          <t>Patient has: Fatigue</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -5169,7 +5229,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fever</t>
+          <t>Patient has: Fever</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -5181,7 +5241,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Anorexia</t>
+          <t>Patient has: Anorexia</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -5193,7 +5253,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ESR abnormal</t>
+          <t>Patient has: ESR abnormal</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -5205,7 +5265,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>White Race</t>
+          <t>Patient has: White Race</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -5217,7 +5277,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Any visual symptom</t>
+          <t>Patient has: Any visual symptom</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -5229,7 +5289,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Arthralgia</t>
+          <t>Patient has: Arthralgia</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -5241,7 +5301,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Any funduscopic abnormality</t>
+          <t>Patient has: Any funduscopic abnormality</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5253,7 +5313,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Polymyalgia rheumatica</t>
+          <t>Patient has: Polymyalgia rheumatica</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5265,7 +5325,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Myalgia</t>
+          <t>Patient has: Myalgia</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5277,7 +5337,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Unilateral visual loss</t>
+          <t>Patient has: Unilateral visual loss</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5289,7 +5349,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Male se×</t>
+          <t>Patient has: Male se×</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5301,7 +5361,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Vertigo</t>
+          <t>Patient has: Vertigo</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5313,7 +5373,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Synovitis</t>
+          <t>Patient has: Synovitis</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5325,7 +5385,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ESR abnormal</t>
+          <t>Patient does not have: ESR abnormal</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5337,7 +5397,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ESR &gt; 50 mm/h</t>
+          <t>Patient does not have: ESR &gt; 50 mm/h</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -5349,7 +5409,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Any temporal artery abnormality</t>
+          <t>Patient does not have: Any temporal artery abnormality</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5361,7 +5421,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Prominent or enlarged temporal artery</t>
+          <t>Patient does not have: Prominent or enlarged temporal artery</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5373,7 +5433,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Any headache</t>
+          <t>Patient does not have: Any headache</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5385,7 +5445,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Absent temporal artery pulse</t>
+          <t>Patient does not have: Absent temporal artery pulse</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5397,7 +5457,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Jaw claudication</t>
+          <t>Patient does not have: Jaw claudication</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5409,7 +5469,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Anemia</t>
+          <t>Patient does not have: Anemia</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5421,7 +5481,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Optic atrophy or ischemic optic neuropathy</t>
+          <t>Patient does not have: Optic atrophy or ischemic optic neuropathy</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5433,7 +5493,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ESR &gt; 100 mm/h</t>
+          <t>Patient does not have: ESR &gt; 100 mm/h</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5445,7 +5505,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Temporal headache</t>
+          <t>Patient does not have: Temporal headache</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5457,7 +5517,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Tender temporal artery</t>
+          <t>Patient does not have: Tender temporal artery</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5469,7 +5529,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Anorexia</t>
+          <t>Patient does not have: Anorexia</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5481,7 +5541,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Weight loss</t>
+          <t>Patient does not have: Weight loss</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5493,7 +5553,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fever</t>
+          <t>Patient does not have: Fever</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5505,7 +5565,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Scalp tenderness</t>
+          <t>Patient does not have: Scalp tenderness</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5517,7 +5577,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Beaded temporal artery</t>
+          <t>Patient does not have: Beaded temporal artery</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5529,7 +5589,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Fatigue</t>
+          <t>Patient does not have: Fatigue</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5541,7 +5601,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Diplopia</t>
+          <t>Patient does not have: Diplopia</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5553,7 +5613,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Any visual symptom</t>
+          <t>Patient does not have: Any visual symptom</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5565,7 +5625,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Polymyalgia rheumatica</t>
+          <t>Patient does not have: Polymyalgia rheumatica</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5577,7 +5637,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Arthralgia</t>
+          <t>Patient does not have: Arthralgia</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5589,7 +5649,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Any funduscopic abnormality</t>
+          <t>Patient does not have: Any funduscopic abnormality</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5601,7 +5661,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Myalgia</t>
+          <t>Patient does not have: Myalgia</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5613,7 +5673,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Vertigo</t>
+          <t>Patient does not have: Vertigo</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5625,7 +5685,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Synovitis</t>
+          <t>Patient does not have: Synovitis</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5637,7 +5697,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Unilateral visual loss</t>
+          <t>Patient does not have: Unilateral visual loss</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5676,7 +5736,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abnormal prior stress test</t>
+          <t>Patient has: Abnormal prior stress test</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5688,7 +5748,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Peripheral arterial disease</t>
+          <t>Patient has: Peripheral arterial disease</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -5700,7 +5760,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Prior history of CAD</t>
+          <t>Patient has: Prior history of CAD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5712,7 +5772,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Prior MI</t>
+          <t>Patient has: Prior MI</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5724,7 +5784,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Diabetes</t>
+          <t>Patient has: Diabetes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5736,7 +5796,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CVA</t>
+          <t>Patient has: CVA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5748,7 +5808,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Male gender</t>
+          <t>Patient has: Male gender</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5760,7 +5820,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hyperlipidemia</t>
+          <t>Patient has: Hyperlipidemia</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5772,7 +5832,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hypertension</t>
+          <t>Patient has: Hypertension</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5784,7 +5844,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Any tobacco use</t>
+          <t>Patient has: Any tobacco use</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5796,7 +5856,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Family history of CAD</t>
+          <t>Patient has: Family history of CAD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5808,7 +5868,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Obesity</t>
+          <t>Patient has: Obesity</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -5820,7 +5880,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>History of CABG</t>
+          <t>Patient has: History of CABG</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -5832,7 +5892,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Radiation to both arms</t>
+          <t>Patient has: Radiation to both arms</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5844,7 +5904,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pain similar to prior ischemia</t>
+          <t>Patient has: Pain similar to prior ischemia</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -5856,7 +5916,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Change in pattern over prior 24 hours</t>
+          <t>Patient has: Change in pattern over prior 24 hours</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -5868,7 +5928,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>"Typical" chest pain</t>
+          <t>Patient has: "Typical" chest pain</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -5880,7 +5940,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pain worse with exertion</t>
+          <t>Patient has: Pain worse with exertion</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -5892,7 +5952,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Radiation to neck or jaw</t>
+          <t>Patient has: Radiation to neck or jaw</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -5904,7 +5964,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Recent episode of similar pain</t>
+          <t>Patient has: Recent episode of similar pain</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -5916,7 +5976,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Radiation to left arm</t>
+          <t>Patient has: Radiation to left arm</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -5928,7 +5988,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Radiation to right arm</t>
+          <t>Patient has: Radiation to right arm</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -5940,7 +6000,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pain with diaphoresis</t>
+          <t>Patient has: Pain with diaphoresis</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5952,7 +6012,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Pain with dyspnea</t>
+          <t>Patient has: Pain with dyspnea</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5964,7 +6024,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Abrupt onset</t>
+          <t>Patient has: Abrupt onset</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5976,7 +6036,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Any improvement with nitroglycerin</t>
+          <t>Patient has: Any improvement with nitroglycerin</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5988,7 +6048,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>"Typical" radiation</t>
+          <t>Patient has: "Typical" radiation</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -6000,7 +6060,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Burning pain</t>
+          <t>Patient has: Burning pain</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -6012,7 +6072,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Associated nausea/vomiting</t>
+          <t>Patient has: Associated nausea/vomiting</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6024,7 +6084,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Associated palpitations</t>
+          <t>Patient has: Associated palpitations</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6036,7 +6096,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Associated syncope</t>
+          <t>Patient has: Associated syncope</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6048,7 +6108,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pleuritic pain</t>
+          <t>Patient has: Pleuritic pain</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6060,7 +6120,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hypotension (SBP&lt;100)</t>
+          <t>Patient has: Hypotension (SBP&lt;100)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6072,7 +6132,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Lung rales</t>
+          <t>Patient has: Lung rales</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6084,7 +6144,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tachypnea</t>
+          <t>Patient has: Tachypnea</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6096,7 +6156,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tachycardia (heart rate&gt;120)</t>
+          <t>Patient has: Tachycardia (heart rate&gt;120)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -6108,7 +6168,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pain reproduced on palpation</t>
+          <t>Patient has: Pain reproduced on palpation</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -6120,7 +6180,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ST depression</t>
+          <t>Patient has: ST depression</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -6132,7 +6192,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ischemic ECG</t>
+          <t>Patient has: Ischemic ECG</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -6144,7 +6204,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>T wave inversion</t>
+          <t>Patient has: T wave inversion</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6156,7 +6216,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HEART score 7-10</t>
+          <t>Patient has: HEART score 7-10</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6168,7 +6228,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TIMI score 5-7</t>
+          <t>Patient has: TIMI score 5-7</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6180,7 +6240,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HEART score 5-6</t>
+          <t>Patient has: HEART score 5-6</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6192,7 +6252,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TIMI score 3-4</t>
+          <t>Patient has: TIMI score 3-4</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6204,7 +6264,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HFA/CSANZ rule (high risk)</t>
+          <t>Patient has: HFA/CSANZ rule (high risk)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6216,7 +6276,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HEART score 4</t>
+          <t>Patient has: HEART score 4</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6228,7 +6288,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TIMI score 2</t>
+          <t>Patient has: TIMI score 2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6240,7 +6300,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HEART score 0-3</t>
+          <t>Patient has: HEART score 0-3</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6252,7 +6312,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TIMI score 0-1</t>
+          <t>Patient has: TIMI score 0-1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -6264,7 +6324,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HFA/CSANZ rule (low to intermediate)</t>
+          <t>Patient has: HFA/CSANZ rule (low to intermediate)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6276,7 +6336,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Male gender</t>
+          <t>Patient does not have: Male gender</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6288,7 +6348,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Prior history of CAD</t>
+          <t>Patient does not have: Prior history of CAD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6300,7 +6360,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Hypertension</t>
+          <t>Patient does not have: Hypertension</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6312,7 +6372,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Hyperlipidemia</t>
+          <t>Patient does not have: Hyperlipidemia</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6324,7 +6384,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Prior MI</t>
+          <t>Patient does not have: Prior MI</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6336,7 +6396,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Diabetes</t>
+          <t>Patient does not have: Diabetes</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6348,7 +6408,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Abnormal prior stress test</t>
+          <t>Patient does not have: Abnormal prior stress test</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -6360,7 +6420,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Any tobacco use</t>
+          <t>Patient does not have: Any tobacco use</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6372,7 +6432,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Peripheral arterial disease</t>
+          <t>Patient does not have: Peripheral arterial disease</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6384,7 +6444,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CVA</t>
+          <t>Patient does not have: CVA</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6396,7 +6456,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Obesity</t>
+          <t>Patient does not have: Obesity</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6408,7 +6468,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Family history of CAD</t>
+          <t>Patient does not have: Family history of CAD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6420,7 +6480,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>History of CABG</t>
+          <t>Patient does not have: History of CABG</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6432,7 +6492,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>"Typical" chest pain</t>
+          <t>Patient does not have: "Typical" chest pain</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6444,7 +6504,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Pain worse with exertion</t>
+          <t>Patient does not have: Pain worse with exertion</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6456,7 +6516,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Pain similar to prior ischemia</t>
+          <t>Patient does not have: Pain similar to prior ischemia</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6468,7 +6528,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Abrupt onset</t>
+          <t>Patient does not have: Abrupt onset</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -6480,7 +6540,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>"Typical" radiation</t>
+          <t>Patient does not have: "Typical" radiation</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -6492,7 +6552,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Recent episode of similar pain</t>
+          <t>Patient does not have: Recent episode of similar pain</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -6504,7 +6564,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Change in pattern over prior 24 hours</t>
+          <t>Patient does not have: Change in pattern over prior 24 hours</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -6516,7 +6576,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Radiation to left arm</t>
+          <t>Patient does not have: Radiation to left arm</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -6528,7 +6588,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Pain with dyspnea</t>
+          <t>Patient does not have: Pain with dyspnea</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -6540,7 +6600,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Any improvement with nitroglycerin</t>
+          <t>Patient does not have: Any improvement with nitroglycerin</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -6552,7 +6612,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Radiation to neck or jaw</t>
+          <t>Patient does not have: Radiation to neck or jaw</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -6564,7 +6624,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Pain with diaphoresis</t>
+          <t>Patient does not have: Pain with diaphoresis</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -6576,7 +6636,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Radiation to both arms</t>
+          <t>Patient does not have: Radiation to both arms</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6588,7 +6648,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Burning pain</t>
+          <t>Patient does not have: Burning pain</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6600,7 +6660,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Associated nausea/vomiting</t>
+          <t>Patient does not have: Associated nausea/vomiting</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6612,7 +6672,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Radiation to right arm</t>
+          <t>Patient does not have: Radiation to right arm</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6624,7 +6684,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Associated palpitations</t>
+          <t>Patient does not have: Associated palpitations</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6636,7 +6696,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Associated syncope</t>
+          <t>Patient does not have: Associated syncope</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6648,7 +6708,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Pleuritic pain</t>
+          <t>Patient does not have: Pleuritic pain</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -6660,7 +6720,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Tachypnea</t>
+          <t>Patient does not have: Tachypnea</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6672,7 +6732,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Lung rales</t>
+          <t>Patient does not have: Lung rales</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6684,7 +6744,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Hypotension (SBP &lt;100)</t>
+          <t>Patient does not have: Hypotension (SBP &lt;100)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6696,7 +6756,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Tachycardia (HR &gt;120)</t>
+          <t>Patient does not have: Tachycardia (HR &gt;120)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6708,7 +6768,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Pain reproduced on palpation</t>
+          <t>Patient does not have: Pain reproduced on palpation</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6720,7 +6780,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Ischemic ECG</t>
+          <t>Patient does not have: Ischemic ECG</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6732,7 +6792,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ST depression</t>
+          <t>Patient does not have: ST depression</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6744,7 +6804,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>T wave inversion</t>
+          <t>Patient does not have: T wave inversion</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6783,7 +6843,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Flick Sign</t>
+          <t>Patient has: Flick Sign</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -6795,7 +6855,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Closed Fist Sign</t>
+          <t>Patient has: Closed Fist Sign</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6807,7 +6867,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hypalgesia</t>
+          <t>Patient has: Hypalgesia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6819,7 +6879,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Square Hand Sign</t>
+          <t>Patient has: Square Hand Sign</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6831,7 +6891,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Classical or
+          <t>Patient has: Classical or
   Probable (Hand diagram, JAMA 2000)</t>
         </is>
       </c>
@@ -6844,7 +6904,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Weak Thumb
+          <t>Patient has: Weak Thumb
   Abduction</t>
         </is>
       </c>
@@ -6857,7 +6917,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Thenar Atrophy</t>
+          <t>Patient has: Thenar Atrophy</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -6869,7 +6929,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Abnormal Vibration</t>
+          <t>Patient has: Abnormal Vibration</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -6881,7 +6941,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Abnormal
+          <t>Patient has: Abnormal
   Monofilament</t>
         </is>
       </c>
@@ -6894,7 +6954,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bilateral Symptoms</t>
+          <t>Patient has: Bilateral Symptoms</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -6906,7 +6966,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tinnel Sign</t>
+          <t>Patient has: Tinnel Sign</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -6918,7 +6978,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Phalen Sign</t>
+          <t>Patient has: Phalen Sign</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -6930,7 +6990,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Age &gt; 40 years</t>
+          <t>Patient has: Age &gt; 40 years</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -6942,7 +7002,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2 point
+          <t>Patient has: 2 point
   discrimination</t>
         </is>
       </c>
@@ -6955,7 +7015,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nocturnal
+          <t>Patient has: Nocturnal
   Paresthesia</t>
         </is>
       </c>
@@ -6968,7 +7028,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pressure
+          <t>Patient has: Pressure
   Provocation Test</t>
         </is>
       </c>
@@ -6981,7 +7041,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Tourniquet Test</t>
+          <t>Patient has: Tourniquet Test</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -6993,7 +7053,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Flick Sign</t>
+          <t>Patient does not have: Flick Sign</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7005,7 +7065,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Closed Fist Sign</t>
+          <t>Patient does not have: Closed Fist Sign</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7017,7 +7077,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Classical or
+          <t>Patient does not have: Classical or
   Probable  (Hand diagram, JAMA 2000)</t>
         </is>
       </c>
@@ -7030,7 +7090,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Age &gt; 40 years</t>
+          <t>Patient does not have: Age &gt; 40 years</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -7042,7 +7102,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Weak Thumb
+          <t>Patient does not have: Weak Thumb
   Abduction</t>
         </is>
       </c>
@@ -7055,7 +7115,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Square Hand Sign</t>
+          <t>Patient does not have: Square Hand Sign</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -7067,7 +7127,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bilateral Symptoms</t>
+          <t>Patient does not have: Bilateral Symptoms</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -7079,7 +7139,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nocturnal
+          <t>Patient does not have: Nocturnal
   Paresthesia</t>
         </is>
       </c>
@@ -7092,7 +7152,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Abnormal
+          <t>Patient does not have: Abnormal
   Monofilament</t>
         </is>
       </c>
@@ -7105,7 +7165,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hypalgesia</t>
+          <t>Patient does not have: Hypalgesia</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -7117,7 +7177,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Phalen Sign</t>
+          <t>Patient does not have: Phalen Sign</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -7129,7 +7189,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Abnormal Vibration</t>
+          <t>Patient does not have: Abnormal Vibration</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -7141,7 +7201,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tinnel Sign</t>
+          <t>Patient does not have: Tinnel Sign</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -7153,7 +7213,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tourniquet Test</t>
+          <t>Patient does not have: Tourniquet Test</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -7165,7 +7225,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Thenar Atrophy</t>
+          <t>Patient does not have: Thenar Atrophy</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -7177,7 +7237,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2 point
+          <t>Patient does not have: 2 point
   discrimination</t>
         </is>
       </c>
@@ -7190,7 +7250,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pressure
+          <t>Patient does not have: Pressure
   Provocation Test</t>
         </is>
       </c>
@@ -7230,7 +7290,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tearing/Ripping Pain</t>
+          <t>Patient has: Tearing/Ripping Pain</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7242,7 +7302,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Migrating pain</t>
+          <t>Patient has: Migrating pain</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7254,7 +7314,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sudden Chest Pain</t>
+          <t>Patient has: Sudden Chest Pain</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7266,7 +7326,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hx of Hypertension</t>
+          <t>Patient has: Hx of Hypertension</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7278,7 +7338,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Focal Neurologic Deficit</t>
+          <t>Patient has: Focal Neurologic Deficit</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7290,7 +7350,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Diastolic Heart Murmur</t>
+          <t>Patient has: Diastolic Heart Murmur</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7302,7 +7362,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pulse Deficit</t>
+          <t>Patient has: Pulse Deficit</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7314,7 +7374,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Enlarged Aorta or Wide Mediastinum</t>
+          <t>Patient has: Enlarged Aorta or Wide Mediastinum</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7326,7 +7386,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LVH on Admission EKG</t>
+          <t>Patient has: LVH on Admission EKG</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7338,7 +7398,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sudden Chest Pain</t>
+          <t>Patient does not have: Sudden Chest Pain</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7350,7 +7410,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>History of Hypertension</t>
+          <t>Patient does not have: History of Hypertension</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7362,7 +7422,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tearing/Ripping Pain</t>
+          <t>Patient does not have: Tearing/Ripping Pain</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7374,7 +7434,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Migrating Pain</t>
+          <t>Patient does not have: Migrating Pain</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7386,7 +7446,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pulse deficit</t>
+          <t>Patient does not have: Pulse deficit</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7398,7 +7458,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Focal Neuro deficit</t>
+          <t>Patient does not have: Focal Neuro deficit</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7410,7 +7470,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Diastolic murmur</t>
+          <t>Patient does not have: Diastolic murmur</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7422,7 +7482,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Enlarge aorta or wide mediastinum</t>
+          <t>Patient does not have: Enlarge aorta or wide mediastinum</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7434,7 +7494,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LVH on admission EKG</t>
+          <t>Patient does not have: LVH on admission EKG</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7473,7 +7533,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>High Sensitivity D-Dimer with Low Pre-Test Probability</t>
+          <t>Patient has: High Sensitivity D-Dimer with Low Pre-Test Probability</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7485,7 +7545,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>High Sensitivity D-Dimer with Mod Pre-Test Probability</t>
+          <t>Patient has: High Sensitivity D-Dimer with Mod Pre-Test Probability</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7497,7 +7557,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>High Sensitivity D-Dimer with High Pre-Test Probability</t>
+          <t>Patient has: High Sensitivity D-Dimer with High Pre-Test Probability</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7509,7 +7569,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>High Sensitivity D-Dimer with Mod Pre-Test Probability</t>
+          <t>Patient does not have: High Sensitivity D-Dimer with Mod Pre-Test Probability</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7521,7 +7581,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>High Sensitivity D-Dimer with High Pre-Test Probability</t>
+          <t>Patient does not have: High Sensitivity D-Dimer with High Pre-Test Probability</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7533,7 +7593,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>High Sensitivity D-Dimer with Low Pre-Test Probability</t>
+          <t>Patient does not have: High Sensitivity D-Dimer with Low Pre-Test Probability</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7572,7 +7632,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kerley B lines</t>
+          <t>Patient has: Kerley B lines</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7584,7 +7644,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Interstitial edema</t>
+          <t>Patient has: Interstitial edema</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7596,7 +7656,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cephalization</t>
+          <t>Patient has: Cephalization</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7608,7 +7668,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alveolar edema</t>
+          <t>Patient has: Alveolar edema</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7620,7 +7680,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Positive B-line scan</t>
+          <t>Patient has: Positive B-line scan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7632,7 +7692,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Restrictive mitral pattern</t>
+          <t>Patient has: Restrictive mitral pattern</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7644,7 +7704,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kerley B lines</t>
+          <t>Patient does not have: Kerley B lines</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7656,7 +7716,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Interstitial edema</t>
+          <t>Patient does not have: Interstitial edema</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7668,7 +7728,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cephalization</t>
+          <t>Patient does not have: Cephalization</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7680,7 +7740,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Alveolar edema</t>
+          <t>Patient does not have: Alveolar edema</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7692,7 +7752,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Positive B-line scan</t>
+          <t>Patient does not have: Positive B-line scan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7704,7 +7764,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Restrictive mitral pattern</t>
+          <t>Patient does not have: Restrictive mitral pattern</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7743,7 +7803,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of Atrial fibrillation</t>
+          <t>Patient has: History of Atrial fibrillation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7755,7 +7815,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of Coronary artery bypass grafting</t>
+          <t>Patient has: History of Coronary artery bypass grafting</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7767,7 +7827,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of Myocardial infarction</t>
+          <t>Patient has: History of Myocardial infarction</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7779,7 +7839,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of Diabetes mellitus</t>
+          <t>Patient has: History of Diabetes mellitus</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7791,7 +7851,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of Coronary artery disease</t>
+          <t>Patient has: History of Coronary artery disease</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7803,7 +7863,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>History of Angina</t>
+          <t>Patient has: History of Angina</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7815,7 +7875,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>History of Hypertension</t>
+          <t>Patient has: History of Hypertension</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7827,7 +7887,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Orthopnea</t>
+          <t>Patient has: Orthopnea</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7839,7 +7899,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fatigue</t>
+          <t>Patient has: Fatigue</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7851,7 +7911,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nocturnal cough</t>
+          <t>Patient has: Nocturnal cough</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7863,7 +7923,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3rd heart sound (ventricullar filling gallop)</t>
+          <t>Patient has: 3rd heart sound (ventricullar filling gallop)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7875,7 +7935,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JVD</t>
+          <t>Patient has: JVD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7887,7 +7947,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lower extremity edema</t>
+          <t>Patient has: Lower extremity edema</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7899,7 +7959,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rales</t>
+          <t>Patient has: Rales</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7911,7 +7971,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hepatic congestion</t>
+          <t>Patient has: Hepatic congestion</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7923,7 +7983,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Enlarged heart</t>
+          <t>Patient has: Enlarged heart</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7935,7 +7995,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Wheezing</t>
+          <t>Patient has: Wheezing</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7947,7 +8007,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Clinician's Gestalt</t>
+          <t>Patient has: Clinician's Gestalt</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7959,7 +8019,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Edema</t>
+          <t>Patient has: Edema</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7971,7 +8031,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cardiolmegaly</t>
+          <t>Patient has: Cardiolmegaly</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -7983,7 +8043,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pleural effusion(s)</t>
+          <t>Patient has: Pleural effusion(s)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -7995,7 +8055,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pneumonia</t>
+          <t>Patient has: Pneumonia</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -8007,7 +8067,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Hyperventilation</t>
+          <t>Patient has: Hyperventilation</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -8019,7 +8079,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Patient has: Normal</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -8031,7 +8091,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Atrial fibrillation</t>
+          <t>Patient has: Atrial fibrillation</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -8043,7 +8103,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ischemic ST-T waves</t>
+          <t>Patient has: Ischemic ST-T waves</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -8055,7 +8115,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q waves</t>
+          <t>Patient has: Q waves</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -8067,7 +8127,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BNP ≥100 pg/ml</t>
+          <t>Patient has: BNP ≥100 pg/ml</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -8079,7 +8139,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Coronary artery disease</t>
+          <t>Patient does not have: Coronary artery disease</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -8091,7 +8151,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Atrial fibrillation</t>
+          <t>Patient does not have: Atrial fibrillation</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -8103,7 +8163,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Myocardial infarction</t>
+          <t>Patient does not have: Myocardial infarction</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -8115,7 +8175,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hypertension</t>
+          <t>Patient does not have: Hypertension</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -8127,7 +8187,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Diabetes mellitus</t>
+          <t>Patient does not have: Diabetes mellitus</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -8139,7 +8199,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Angina</t>
+          <t>Patient does not have: Angina</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -8151,7 +8211,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Coronary artery bypass grafting</t>
+          <t>Patient does not have: Coronary artery bypass grafting</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -8163,7 +8223,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Orthopnea</t>
+          <t>Patient does not have: Orthopnea</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -8175,7 +8235,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fatigue</t>
+          <t>Patient does not have: Fatigue</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -8187,7 +8247,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Nocturnal cough</t>
+          <t>Patient does not have: Nocturnal cough</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -8199,7 +8259,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Rales</t>
+          <t>Patient does not have: Rales</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8211,7 +8271,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Lower extremity edema</t>
+          <t>Patient does not have: Lower extremity edema</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8223,7 +8283,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>JVD</t>
+          <t>Patient does not have: JVD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8235,7 +8295,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3rd heart sound (ventricullar filling gallop)</t>
+          <t>Patient does not have: 3rd heart sound (ventricullar filling gallop)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8247,7 +8307,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Hepatic congestion</t>
+          <t>Patient does not have: Hepatic congestion</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8259,7 +8319,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Enlarged heart</t>
+          <t>Patient does not have: Enlarged heart</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8271,7 +8331,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Wheezing</t>
+          <t>Patient does not have: Wheezing</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -8283,7 +8343,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Clinician's Gestalt</t>
+          <t>Patient does not have: Clinician's Gestalt</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -8295,7 +8355,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Cardiolmegaly</t>
+          <t>Patient does not have: Cardiolmegaly</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -8307,7 +8367,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Edema</t>
+          <t>Patient does not have: Edema</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -8319,7 +8379,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Pleural effusion(s)</t>
+          <t>Patient does not have: Pleural effusion(s)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -8331,7 +8391,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Pneumonia</t>
+          <t>Patient does not have: Pneumonia</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -8343,7 +8403,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Hyperventilation</t>
+          <t>Patient does not have: Hyperventilation</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -8355,7 +8415,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Patient does not have: Normal</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -8367,7 +8427,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Atrial fibrillation</t>
+          <t>Patient does not have: Atrial fibrillation</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -8379,7 +8439,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Ischemic ST-T waves</t>
+          <t>Patient does not have: Ischemic ST-T waves</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -8391,7 +8451,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Q waves</t>
+          <t>Patient does not have: Q waves</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -8403,7 +8463,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BNP ≥100 pg/ml</t>
+          <t>Patient does not have: BNP ≥100 pg/ml</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8442,7 +8502,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of Heart Failure</t>
+          <t>Patient has: History of Heart Failure</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -8454,7 +8514,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of Myocardial infarction</t>
+          <t>Patient has: History of Myocardial infarction</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -8466,7 +8526,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of Coronary artery disease</t>
+          <t>Patient has: History of Coronary artery disease</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -8478,7 +8538,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of Dyslipidemia</t>
+          <t>Patient has: History of Dyslipidemia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -8490,7 +8550,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of Diabetes mellitus</t>
+          <t>Patient has: History of Diabetes mellitus</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -8502,7 +8562,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>History of Hypertension</t>
+          <t>Patient has: History of Hypertension</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -8514,7 +8574,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>History of Smoking</t>
+          <t>Patient has: History of Smoking</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -8526,7 +8586,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>History of COPD</t>
+          <t>Patient has: History of COPD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -8538,7 +8598,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Paroxysmal nocturnal dyspnea</t>
+          <t>Patient has: Paroxysmal nocturnal dyspnea</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -8550,7 +8610,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Orthopnea</t>
+          <t>Patient has: Orthopnea</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -8562,7 +8622,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Edema</t>
+          <t>Patient has: Edema</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -8574,7 +8634,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dyspnea on exertion</t>
+          <t>Patient has: Dyspnea on exertion</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -8586,7 +8646,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fatigue and weight gain</t>
+          <t>Patient has: Fatigue and weight gain</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -8598,7 +8658,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cough</t>
+          <t>Patient has: Cough</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -8610,7 +8670,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3rd heart sound (ventricullar filling gallop)</t>
+          <t>Patient has: 3rd heart sound (ventricullar filling gallop)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -8622,7 +8682,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Abdominojugular reflux</t>
+          <t>Patient has: Abdominojugular reflux</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -8634,7 +8694,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JVD</t>
+          <t>Patient has: JVD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -8646,7 +8706,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Rales</t>
+          <t>Patient has: Rales</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -8658,7 +8718,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Any murmur</t>
+          <t>Patient has: Any murmur</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -8670,7 +8730,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lower extremity edema</t>
+          <t>Patient has: Lower extremity edema</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -8682,7 +8742,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Valsalva maneuver</t>
+          <t>Patient has: Valsalva maneuver</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -8694,7 +8754,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SBP &lt;100 mmHg</t>
+          <t>Patient has: SBP &lt;100 mmHg</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -8706,7 +8766,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4th heart sound (atrial gallop)</t>
+          <t>Patient has: 4th heart sound (atrial gallop)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -8718,7 +8778,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SBP &gt;= 150 mmHg</t>
+          <t>Patient has: SBP &gt;= 150 mmHg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -8730,7 +8790,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Wheezing</t>
+          <t>Patient has: Wheezing</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -8742,7 +8802,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Clinician's Gestalt</t>
+          <t>Patient has: Clinician's Gestalt</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -8754,7 +8814,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pulmonary venous congestion</t>
+          <t>Patient has: Pulmonary venous congestion</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -8766,7 +8826,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Interstitial edema</t>
+          <t>Patient has: Interstitial edema</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -8778,7 +8838,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Alveolar edema</t>
+          <t>Patient has: Alveolar edema</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -8790,7 +8850,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cardiomegaly</t>
+          <t>Patient has: Cardiomegaly</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -8802,7 +8862,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pleural effusion(s)</t>
+          <t>Patient has: Pleural effusion(s)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -8814,7 +8874,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Any edema</t>
+          <t>Patient has: Any edema</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -8826,7 +8886,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Pneumonia</t>
+          <t>Patient has: Pneumonia</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -8838,7 +8898,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hyperinflation</t>
+          <t>Patient has: Hyperinflation</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -8850,7 +8910,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Atrial fibrillation</t>
+          <t>Patient has: Atrial fibrillation</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -8862,7 +8922,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>New T-wave changes</t>
+          <t>Patient has: New T-wave changes</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -8874,7 +8934,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Any abnormal finding</t>
+          <t>Patient has: Any abnormal finding</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -8886,7 +8946,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ST elevation</t>
+          <t>Patient has: ST elevation</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -8898,7 +8958,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ST depression</t>
+          <t>Patient has: ST depression</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8910,7 +8970,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>≥250</t>
+          <t>Patient has: ≥250</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8922,7 +8982,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>≥200</t>
+          <t>Patient has: ≥200</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8934,7 +8994,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>≥150</t>
+          <t>Patient has: ≥150</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8946,7 +9006,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Clinical judgement or BNP ≥100 pg/ml</t>
+          <t>Patient has: Clinical judgement or BNP ≥100 pg/ml</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8958,7 +9018,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>Patient has: ≥100</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8970,7 +9030,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>≥50</t>
+          <t>Patient has: ≥50</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -8982,7 +9042,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>History of Heart Failure</t>
+          <t>Patient does not have: History of Heart Failure</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -8994,7 +9054,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>History of Myocardial infarction</t>
+          <t>Patient does not have: History of Myocardial infarction</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9006,7 +9066,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>History of Coronary artery disease</t>
+          <t>Patient does not have: History of Coronary artery disease</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9018,7 +9078,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>History of Hypertension</t>
+          <t>Patient does not have: History of Hypertension</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -9030,7 +9090,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>History of Dyslipidemia</t>
+          <t>Patient does not have: History of Dyslipidemia</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -9042,7 +9102,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>History of Diabetes mellitus</t>
+          <t>Patient does not have: History of Diabetes mellitus</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -9054,7 +9114,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>History of Smoking</t>
+          <t>Patient does not have: History of Smoking</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -9066,7 +9126,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>History of COPD</t>
+          <t>Patient does not have: History of COPD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -9078,7 +9138,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Dyspnea on exertion</t>
+          <t>Patient does not have: Dyspnea on exertion</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -9090,7 +9150,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Edema</t>
+          <t>Patient does not have: Edema</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -9102,7 +9162,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Orthopnea</t>
+          <t>Patient does not have: Orthopnea</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -9114,7 +9174,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Paroxysmal nocturnal dyspnea</t>
+          <t>Patient does not have: Paroxysmal nocturnal dyspnea</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -9126,7 +9186,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Fatigue and weight gain</t>
+          <t>Patient does not have: Fatigue and weight gain</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -9138,7 +9198,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Cough</t>
+          <t>Patient does not have: Cough</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -9150,7 +9210,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Valsalva maneuver</t>
+          <t>Patient does not have: Valsalva maneuver</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -9162,7 +9222,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Rales</t>
+          <t>Patient does not have: Rales</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -9174,7 +9234,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Lower extremity edema</t>
+          <t>Patient does not have: Lower extremity edema</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -9186,7 +9246,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>JVD</t>
+          <t>Patient does not have: JVD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -9198,7 +9258,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Abdominojugular reflux</t>
+          <t>Patient does not have: Abdominojugular reflux</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -9210,7 +9270,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Any murmur</t>
+          <t>Patient does not have: Any murmur</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -9222,7 +9282,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3rd heart sound (ventricullar filling gallop)</t>
+          <t>Patient does not have: 3rd heart sound (ventricullar filling gallop)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -9234,7 +9294,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SBP &lt;100 mmHg</t>
+          <t>Patient does not have: SBP &lt;100 mmHg</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -9246,7 +9306,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4th heart sound (atrial gallop)</t>
+          <t>Patient does not have: 4th heart sound (atrial gallop)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -9258,7 +9318,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SBP ≥ 150 mmHg</t>
+          <t>Patient does not have: SBP ≥ 150 mmHg</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -9270,7 +9330,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ascities</t>
+          <t>Patient does not have: Ascities</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -9282,7 +9342,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Wheezing</t>
+          <t>Patient does not have: Wheezing</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -9294,7 +9354,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Clinician's Gestalt</t>
+          <t>Patient does not have: Clinician's Gestalt</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -9306,7 +9366,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Cardiomegaly</t>
+          <t>Patient does not have: Cardiomegaly</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -9318,7 +9378,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Any edema</t>
+          <t>Patient does not have: Any edema</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -9330,7 +9390,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Pulmonary venous congestion</t>
+          <t>Patient does not have: Pulmonary venous congestion</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -9342,7 +9402,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Interstitial edema</t>
+          <t>Patient does not have: Interstitial edema</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -9354,7 +9414,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Pleural effusion(s)</t>
+          <t>Patient does not have: Pleural effusion(s)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -9366,7 +9426,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Alveolar edema</t>
+          <t>Patient does not have: Alveolar edema</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -9378,7 +9438,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Pneumonia</t>
+          <t>Patient does not have: Pneumonia</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -9390,7 +9450,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Hyperinflation</t>
+          <t>Patient does not have: Hyperinflation</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -9402,7 +9462,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Any abnormal finding</t>
+          <t>Patient does not have: Any abnormal finding</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -9414,7 +9474,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Atrial fibrillation</t>
+          <t>Patient does not have: Atrial fibrillation</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -9426,7 +9486,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>New T-wave changes</t>
+          <t>Patient does not have: New T-wave changes</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -9438,7 +9498,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ST elevation</t>
+          <t>Patient does not have: ST elevation</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -9450,7 +9510,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ST depression</t>
+          <t>Patient does not have: ST depression</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -9462,7 +9522,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>≥50</t>
+          <t>Patient does not have: ≥50</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -9474,7 +9534,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>≥80</t>
+          <t>Patient does not have: ≥80</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -9486,7 +9546,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Clinical judgement or BNP ≥100 pg/ml</t>
+          <t>Patient does not have: Clinical judgement or BNP ≥100 pg/ml</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -9498,7 +9558,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>Patient does not have: ≥100</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -9510,7 +9570,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>≥200</t>
+          <t>Patient does not have: ≥200</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -9522,7 +9582,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>≥250</t>
+          <t>Patient does not have: ≥250</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -9534,7 +9594,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>≥150</t>
+          <t>Patient does not have: ≥150</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -9573,7 +9633,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Respiratory variation in vena cava diameter measured by ultrasound in mechanically ventilated patients (dispensability index &gt;15%)*</t>
+          <t>Patient has: Respiratory variation in vena cava diameter measured by ultrasound in mechanically ventilated patients (dispensability index &gt;15%)*</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -9585,7 +9645,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pulse pressure variation in mechanically ventilated patients, Vt &lt;7.0mL/kg:</t>
+          <t>Patient has: Pulse pressure variation in mechanically ventilated patients, Vt &lt;7.0mL/kg:</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -9597,7 +9657,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Respiratory variation in vena cava diameter measured by ultrasound in mechanically ventilated patients (dispensability index &lt;15%)*</t>
+          <t>Patient does not have: Respiratory variation in vena cava diameter measured by ultrasound in mechanically ventilated patients (dispensability index &lt;15%)*</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
